--- a/src/main/webapp/excel/import.xlsx
+++ b/src/main/webapp/excel/import.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/967ca964fac703f0/Workspace/课程/大二下/Web应用开发设计_郑建炜/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t1542\Program\Web\xhealthcode\src\main\webapp\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{28C0382E-9DEA-4F06-A4C4-A913F914E0C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D04A7803-E846-4F3E-BA02-AFE2E072E02E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E026B9D-ABE7-456B-8871-B41731098994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="2" xr2:uid="{5E0B69D4-73C9-487C-9747-82AB2928ADBA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>学院</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>330000200000000004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +500,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -540,18 +544,19 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="9.06640625" style="1"/>
     <col min="2" max="2" width="13.73046875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -560,12 +565,12 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -574,7 +579,7 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -589,20 +594,21 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="9.06640625" style="1"/>
     <col min="2" max="2" width="15.59765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.265625" customWidth="1"/>
-    <col min="5" max="5" width="10.86328125" customWidth="1"/>
+    <col min="4" max="4" width="20.265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.86328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.46484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -611,10 +617,10 @@
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -622,7 +628,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -631,15 +637,15 @@
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1">
-        <v>12345678</v>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -648,18 +654,19 @@
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="1">
-        <v>12345678</v>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>